--- a/cursoLaravel/VueCdn_LaravelApi/Modelo BD Investigación-1.xlsx
+++ b/cursoLaravel/VueCdn_LaravelApi/Modelo BD Investigación-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Remington\badocente02\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/cursoLaravel/VueCdn_LaravelApi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02B95B08-FEA9-4A75-B906-42AF545FAAC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB26AC7C-BB66-884F-8588-80CEDB8020A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{C26FE258-3CAE-40D1-ADFB-649C02D51C77}"/>
+    <workbookView xWindow="14800" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{C26FE258-3CAE-40D1-ADFB-649C02D51C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Mer" sheetId="1" r:id="rId1"/>
@@ -220,12 +220,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -292,12 +316,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -309,9 +329,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -321,17 +338,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1203,325 +1241,325 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9606F3-1C9E-47B3-86BF-41D0582254A5}">
   <dimension ref="B1:K44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H2" s="14" t="s">
+    <row r="1" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H3" s="2" t="s">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H3" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H4" s="3" t="s">
+    <row r="4" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="12" t="s">
+    <row r="5" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E6" s="2" t="s">
+    <row r="6" spans="2:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="E6" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="8" t="s">
         <v>3</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="4" t="s">
+    <row r="7" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E8" s="7" t="s">
+    <row r="8" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H10" s="14" t="s">
+    <row r="9" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H12" s="3" t="s">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H12" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H13" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H14" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E15" s="9" t="s">
+    <row r="15" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>1</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="2:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="B18" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="7">
         <v>1</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="7"/>
-      <c r="E20" s="3" t="s">
+    <row r="20" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="5"/>
+      <c r="E20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E21" s="3" t="s">
+    <row r="21" spans="2:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="E21" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E22" s="3" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="3" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E23" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="4" t="s">
+    <row r="24" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="5">
+    <row r="25" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="3">
         <v>1</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H26" s="8" t="s">
+    <row r="26" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H27" s="2" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H27" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E28" s="7" t="s">
+    <row r="28" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E29" s="8" t="s">
+    <row r="29" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E29" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E30" s="2" t="s">
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E30" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E31" s="3" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E31" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E32" s="3" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E32" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E33" s="3" t="s">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E33" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E34" s="3" t="s">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E34" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="4" t="s">
+    <row r="35" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E36" s="13" t="s">
+    <row r="36" spans="2:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="E36" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E38" s="7">
+    <row r="38" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E38" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="8" t="s">
+    <row r="39" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="4">
         <v>1</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="4" t="s">
+    <row r="41" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E42" s="3" t="s">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E42" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E43" s="3" t="s">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E43" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E44" s="4" t="s">
+    <row r="44" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="2" t="s">
         <v>31</v>
       </c>
     </row>
